--- a/SPRING 20/CSE 101 Non CSE/Section 6/online_attendance_cse101_sec6.xlsx
+++ b/SPRING 20/CSE 101 Non CSE/Section 6/online_attendance_cse101_sec6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\SPRING 20\CSE 101 Non CSE\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F4E527-BE73-43A1-B986-0D377BCF40A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C2DAB-FFB0-4F45-B620-12D422BC8456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name_id" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>SL</t>
   </si>
@@ -184,18 +184,52 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Tanzila Nawshin</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Mid Marks</t>
+  </si>
+  <si>
+    <t>Mid Impact Raw</t>
+  </si>
+  <si>
+    <t>Mid Impact</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Mid Total</t>
+  </si>
+  <si>
+    <t>Convert to</t>
+  </si>
+  <si>
+    <t>Free Marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ARIAL"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -244,57 +278,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CE5F659C-3E3F-408B-9D26-4F549AD992BC}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{91BFE201-23E3-4518-86B1-F11103F6A69F}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -696,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -707,12 +732,13 @@
     <col min="1" max="1" width="7.77734375" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="8" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6"/>
-    <col min="6" max="16384" width="10" style="1"/>
+    <col min="4" max="6" width="14.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="6" customWidth="1"/>
+    <col min="8" max="11" width="15.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,8 +751,23 @@
       <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -739,8 +780,29 @@
       <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6">
+        <f>IF(D2="p",3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(H2/$E$55)*$E$56</f>
+        <v>7.6</v>
+      </c>
+      <c r="J2" s="1">
+        <f>ROUND(I2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <f>G2+J2+$E$57</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -753,8 +815,29 @@
       <c r="D3" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G48" si="0">IF(D3="p",3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I48" si="1">(H3/$E$55)*$E$56</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J48" si="2">ROUND(I3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K48" si="3">G3+J3+$E$57</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -767,8 +850,29 @@
       <c r="D4" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -781,8 +885,29 @@
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -795,605 +920,1539 @@
       <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>201011032</v>
+        <v>193013063</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="7">
+        <v>201011032</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
         <v>201011036</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>201011055</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>201011079</v>
+        <v>201011055</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>201011080</v>
+        <v>201011079</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>201011086</v>
+        <v>201011080</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>201011098</v>
+        <v>201011086</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>201011101</v>
+        <v>201011098</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>201011114</v>
+        <v>201011101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>201011125</v>
+        <v>201011114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <v>201011132</v>
+        <v>201011125</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="7">
-        <v>201011144</v>
+        <v>201011132</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="7">
-        <v>201011151</v>
+        <v>201011144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="7">
-        <v>201011165</v>
+        <v>201011151</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>19</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="7">
-        <v>201011177</v>
+        <v>201011165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="7">
-        <v>201011178</v>
+        <v>201011177</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="7">
-        <v>201011180</v>
+        <v>201011178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="7">
-        <v>201011183</v>
+        <v>201011180</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="7">
-        <v>201011186</v>
+        <v>201011183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>19</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="7">
-        <v>201011202</v>
+        <v>201011186</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>19</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="7">
-        <v>201011210</v>
+        <v>201011202</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="7">
-        <v>201011214</v>
+        <v>201011210</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="7">
-        <v>201011219</v>
+        <v>201011214</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="7">
-        <v>201011223</v>
+        <v>201011219</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="7">
-        <v>201011238</v>
+        <v>201011223</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="7">
-        <v>201012030</v>
+        <v>201011238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="7">
-        <v>201012039</v>
+        <v>201012030</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="7">
-        <v>201012040</v>
+        <v>201012039</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="7">
-        <v>201013001</v>
+        <v>201012040</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="7">
-        <v>201013004</v>
+        <v>201013001</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>19</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="7">
-        <v>201013007</v>
+        <v>201013004</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>20</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="7">
-        <v>201013013</v>
+        <v>201013007</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="7">
-        <v>201013044</v>
+        <v>201013013</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>19</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="7">
-        <v>201013045</v>
+        <v>201013044</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="7">
+        <v>201013045</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>19</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
         <v>201013051</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="D42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
         <v>201013086</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="D43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>17</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
         <v>201013088</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="D44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
         <v>201013103</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="D45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>18</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
         <v>201013109</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="D46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
         <v>201016004</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="D47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>19</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
         <v>201016007</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="8">
-        <f>COUNTIF(D2:D47,"=p")</f>
+      <c r="D48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="8">
+        <f>COUNTIF(D2:D48,"=p")</f>
         <v>15</v>
       </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
+    </row>
+    <row r="50" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="55" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:XFD47">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E2 &gt; 0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
